--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F394B7-6B4B-4EDF-A53E-022D6E9D1B52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC43F1-792D-42C6-AF6A-FCBFB5744A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="5010" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="19185" yWindow="0" windowWidth="19215" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Craciun!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image</t>
   </si>
@@ -50,19 +53,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/-/en/Bayer-Design-Trendy-Dolls-Pram/dp/B07N7QP96D/ref=sr_1_13?crid=15RL1QU068R1K&amp;keywords=bayer+puppenwagen&amp;qid=1697798637&amp;sprefix=bayer+pup%2Caps%2C90&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bayer Design Trendy Doll's Pram </t>
-  </si>
-  <si>
-    <t>43.05 EUR</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81ydtZVhzjL._AC_SL1500_.jpg</t>
+    <t>Reserved / bought</t>
   </si>
 </sst>
 </file>
@@ -141,10 +132,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,13 +434,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,25 +462,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A46C8FBB-687F-4272-856C-B9A2E282C9A5}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0D8EEC34-DFEE-4D29-893F-9D7D28519E0B}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC43F1-792D-42C6-AF6A-FCBFB5744A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19185" yWindow="0" windowWidth="19215" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="4680" yWindow="600" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -60,18 +60,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,17 +100,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,25 +434,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C42D08-8488-47AA-BF6F-592468032150}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="600" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Image</t>
   </si>
@@ -54,13 +54,191 @@
   </si>
   <si>
     <t>Reserved / bought</t>
+  </si>
+  <si>
+    <t>LEGO Frozen Storybook 43189</t>
+  </si>
+  <si>
+    <t>23 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s5/product/lego-elsas-maerchenbuch-43189-lego-disney-lego-14486838</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/4/5/0/7/2/8/1/6/6/4/5/0/2/0/1/7/7/6/0/f0bb771b-411d-43f9-8a13-b9131d8cc3ea.jpg?impolicy=ProductTileImage&amp;resizeWidth=958&amp;resizeHeight=992&amp;cropWidth=958&amp;cropHeight=992&amp;quality=high</t>
+  </si>
+  <si>
+    <t>LEGO Elsa's Ice Palace 43238</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/8/8/6/1/7/5/5/9/4/3/5/5/0/7/6/1/0/8/4/2e1fafc7-457b-4c33-9d82-6787e73447c7.jpg?impolicy=ProductTileImage&amp;resizeWidth=984&amp;resizeHeight=992&amp;cropWidth=984&amp;cropHeight=992&amp;quality=high</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s5/product/lego-elsas-ice-palace-43238-lego-disney-lego-37178164#fullscreen=show</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Dollhouse-Fairies-Carousel-Children-10787/dp/B01N1PKFV2/ref=sr_1_2?crid=1BS7RQ4B36JNG&amp;dib=eyJ2IjoiMSJ9.vS3koCKT2OQe_xK7pOkDSRMckTxzj9i54kIiO2vGO77VnIV1rlySmIBqkWxf6esOq7fi-UjLi62y533WSJ2s73hMXuU5cQtpl-U3PsbLVw4g19MU12WM61vPD5vmf25WdqKOvKYbVIomInkyvQeUKovIPLb1siz5RqOLqGAosIFo9SXJtc_gULuVz63RGY_NCb81hdJXm9KAiML0KPWyZeZ0aaywEjFHK8tt5fWr4IpYnSjrEiu-HKYhifdfwNCEJEYXyq2BpZv-eOwjNU0VTjLSVG651P_1959d_R7ITds.f-0ZwBPpAlbG4D_qZtbGrN60O6bCqbDMpyu2BKlFxRU&amp;dib_tag=se&amp;keywords=10787&amp;qid=1715934695&amp;sprefix=10787%2Caps%2C191&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>22 EUR</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/3/4/7/9/9/5/2/5/6/5/9/4/5/0/5/2/1/7/4/9d6ae278-cc39-46fd-b96c-c4369aa0978c_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>LEGO Gabby's 10787</t>
+  </si>
+  <si>
+    <t>Magnetic Building Blocks</t>
+  </si>
+  <si>
+    <t>17 EUR</t>
+  </si>
+  <si>
+    <t>37 CHF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BZZ6QYBV?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_2&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81dH0PTPtJL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Affenzahn Big Friend Fox</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Affenzahn-Unisex-Childrens-Friend-Backpack/dp/B0BPFBPF99/ref=sr_1_2_mod_primary_new?crid=66UZLFMDNROT&amp;dib=eyJ2IjoiMSJ9.YS1hdq_RM1V5nrJ3eSO9HoLIVhAE9TgrQhLnQiQXpmMYBPYyQKliNaahAmPEVHADLWBdh0NFAWb1C1PQyMSIzSibmpmO7kf2veysLgS9OceHCpwq8kbbGSEaZFCHuxmROIPxLthdbN-d_N0PosVIQuUszmeCw_GC_78DHuGl3KxElhuMiF-9fbAOSGHat2OBx6oOUJNehIucMVbFa15mkpjLnXrd-7NIyewJoDOcwdsmJa63z0VtvnU-RAfvZwSRZs0hktl_7d7YgDuyXZLThyZh_CkRi8kCJRJyLSikUK4.D2rJU2tD8tv86jxol_Fh6Ag8ID3kBbrEe0hEVqJesIQ&amp;dib_tag=se&amp;keywords=affenzahn+fuchs&amp;qid=1715935160&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=affenzahn+fuchs%2Caps%2C111&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>54 EUR</t>
+  </si>
+  <si>
+    <t>https://fondof.getbynder.com/transform/4293bede-0bea-454b-8673-ff84b0e91924/Kids-Backpack-Large-Friend-Fox?io=transform:extend,width:800,height:800</t>
+  </si>
+  <si>
+    <t>Affenzahn Small Friend Unicorn</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s8/product/affenzahn-einhorn-4-l-kindergarten-bag-14780511?ip=++++AFZ-FAS-003-027</t>
+  </si>
+  <si>
+    <t>34 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/6/3/7/3/9/3/9/4/8/8/2/7/3/4/6/6/9/0/7/98a02aeb-6639-4cea-967c-6a9c02c800cb_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>Affenzahn Large Friend Fox</t>
+  </si>
+  <si>
+    <t>LEGO DUPLO Disney 10941</t>
+  </si>
+  <si>
+    <t>25 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08GPKTN2B?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_3&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt1f23f4162f46d92c/10941_alt1.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TY Kiki Cat </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/G/03/apparel/rcxgs/tile._CB483369910_.gif</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B01BPUNVS6?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_5&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>10 EUR</t>
+  </si>
+  <si>
+    <t>Lil' Bunny Mini Rabbit Playset</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71gwmzjOPWL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BQN9W3S9?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_6&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>28 EUR</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Primp and Pamper Bathroom</t>
+  </si>
+  <si>
+    <t>18 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09RP56GBF?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_7&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81LsArAAAlL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81l-tItC59L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BSXN87KY?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_8&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>19 EUR</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Craft-a-riffic-Room</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Purr-ific Play Room</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91bQnHUO2SL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BSXNT6WC?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_9&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09RNGBPWR?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_10&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/818l5KDNuEL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gabby's Dollhouse Bakey with Cakey</t>
+  </si>
+  <si>
+    <t>Kinetic Sand Mermaid Suitcase</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/818M5Hm+RtL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09NLSGKQY?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_11&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>39 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0C5CM48YK?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_12&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>40 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71QzF9kgYIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Children's Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +250,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +286,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD39"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +639,250 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{5871BB4B-8CA6-4178-97E0-183216AE46B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C42D08-8488-47AA-BF6F-592468032150}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EFF9B0C-E66B-41DC-A742-AF733443C822}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Image</t>
   </si>
@@ -128,9 +128,6 @@
     <t>https://www.galaxus.ch/im/productimages/6/3/7/3/9/3/9/4/8/8/2/7/3/4/6/6/9/0/7/98a02aeb-6639-4cea-967c-6a9c02c800cb_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
   </si>
   <si>
-    <t>Affenzahn Large Friend Fox</t>
-  </si>
-  <si>
     <t>LEGO DUPLO Disney 10941</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">TY Kiki Cat </t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/G/03/apparel/rcxgs/tile._CB483369910_.gif</t>
   </si>
   <si>
     <t>https://www.amazon.de/dp/B01BPUNVS6?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_5&amp;language=en_US&amp;th=1</t>
@@ -232,6 +226,9 @@
   </si>
   <si>
     <t>Children's Camera</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/719xT8Gej0L._AC_SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -609,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,159 +725,131 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{5871BB4B-8CA6-4178-97E0-183216AE46B7}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{5871BB4B-8CA6-4178-97E0-183216AE46B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EFF9B0C-E66B-41DC-A742-AF733443C822}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA0AE278-0107-41F3-B223-8DD03AD3F5A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Image</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/719xT8Gej0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -307,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +616,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +656,9 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -663,6 +673,9 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -746,6 +759,9 @@
       </c>
       <c r="D9" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA0AE278-0107-41F3-B223-8DD03AD3F5A2}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263C348F-9549-4FB9-BD95-6C15A3210B11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Puzzle (orice 2-5 ani)</t>
+  </si>
+  <si>
+    <t>https://assets.dryicons.com/uploads/icon/svg/13100/1a36a162-9ce3-4d75-a031-b61625848a32.svg</t>
+  </si>
+  <si>
+    <t>Card cadou Zalando</t>
+  </si>
+  <si>
+    <t>https://zalando.ch</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/bfd222ac1b2541db8553ad0bfbde422d/54a998916cfc4620b4bac8119c09a041.jpg?imwidth=300&amp;filter=packshot</t>
   </si>
 </sst>
 </file>
@@ -613,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +862,9 @@
       <c r="D15" t="s">
         <v>57</v>
       </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -860,6 +878,28 @@
       </c>
       <c r="D16" t="s">
         <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263C348F-9549-4FB9-BD95-6C15A3210B11}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52516D45-8B15-4A79-968C-6717B256C268}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +719,9 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -746,6 +749,9 @@
       </c>
       <c r="D7" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Crăciun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{C738B759-9B6B-4001-AED3-BFDF7C46289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52516D45-8B15-4A79-968C-6717B256C268}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E192CBE-989E-4641-8423-87E433D2AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -327,14 +327,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,7 +627,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +701,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -736,6 +735,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -766,6 +768,9 @@
       </c>
       <c r="D8" t="s">
         <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E192CBE-989E-4641-8423-87E433D2AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A037B8-5F9E-4159-8F6D-69D65C3958DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>Image</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Puzzle (orice 2-5 ani)</t>
-  </si>
-  <si>
     <t>https://assets.dryicons.com/uploads/icon/svg/13100/1a36a162-9ce3-4d75-a031-b61625848a32.svg</t>
   </si>
   <si>
@@ -247,6 +244,87 @@
   </si>
   <si>
     <t>https://img01.ztat.net/article/spp-media-p1/bfd222ac1b2541db8553ad0bfbde422d/54a998916cfc4620b4bac8119c09a041.jpg?imwidth=300&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>Puzzle (orice 3-5 ani)</t>
+  </si>
+  <si>
+    <t>LEGO Princess Market 43246</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/LEGO-Disney-Princess-Adventure-Cinderella/dp/B0CFW17427/ref=sr_1_1?crid=2S57I7DOW3RGJ&amp;dib=eyJ2IjoiMSJ9.O4IX-zfr64af8opy3QSNF2ZT80sQLR4S5LkCENoLOZUsOdoigdNbq6JzcaiqiIhoBWzcD-sLcS7kUiCmkJsR2DBrUBl8Vj8KjQf9SRmP70sim25K3BZKQhNOWUmkrZnx49L9v6SHlL4TpdyPLWw9r9rGgq_Cv-AVhS4CqKj2YZyb2Yj5ONFOsQabxBcvsWRtRlgX_69FZPJg8Cn2zAdNA5jMwnxrT34Np7QsJi_NcHR_9ni-cyHdC-08q-if4qriU2xAiByK2HzpB3eBMbD9iQqD9J8RosV8sq6L4UKlS5A.y54hzRPnToDATsiTHnfK_onj2MxmliLgpehHCQBg9WE&amp;dib_tag=se&amp;keywords=lego+43246&amp;qid=1729516242&amp;sprefix=lego+43246%2Caps%2C201&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>68 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81kO40+M7UL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Catel cu telecomanda</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/furReal-Walkin-Interactive-Bouncing-Effects/dp/B0CRBJ8JFR/ref=sr_1_2?crid=1VQJRA7B0MIQV&amp;dib=eyJ2IjoiMSJ9.53Uu6FxJ4b6G8ZdU8vF8f5_69fBrUXbiB0mmwb1j4o3FN5oTVqD_WxOQ-IU9ZCdLyRupmmDs2Bni1O65n56dwqXUKAQ_hfty5U3xd6uubP6GEKV_XpgF4J5s--YdZWRl4b9kz0DjalmySz_sZaxBs7TKoEQrpKoOIm0HBvMOyJci82LMGrfxTtnRQVckEemvsf_-Ukh732hHa8ZrScNKi2kpUIJZSlMODf42dJNSYZY.WOEefNOMKp6eIVjyUoZ4k5cSLQjkeM2JF-DkR-rmPyE&amp;dib_tag=se&amp;keywords=furreal+friends+hund+gogo&amp;qid=1729516311&amp;sprefix=furreal+gogo+hun%2Caps%2C104&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>37 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71A+tWCmVlL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Set potiuni</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Mixies-Cauldron-Purple-Interactive-Conjure/dp/B0BX6YW5N9/ref=sr_1_1?crid=358IKESIBXVKO&amp;dib=eyJ2IjoiMSJ9.oFY88I1D4MFo5A9ePZtzXjbQS4l-SpFJkwgAbWg7MMhtOcENlN6wulpw416W8xsS2fLUPGO47TnycXTPWIxHE2CDymxryzuQt0W7vBohROKY7k9Gxd5wxAniONIj00EQFSdEFqwA14QjSRc8QUbA489aooXS7DEeynFt9EmUOEY8HuoiqkTF2L2tH2U6weSLdM-zRruSR3jTRicqwIRaJ7KS33hoqDz6YFgspU9AJP0G5bDKdrcfvCTO2WeSnZDhWVx8KzBe_NmTT37oDFQSA7zNCmpXIAokJ02pSwIx80U.YJEOHI_2v0L6eI_rOrgvMkf9kcId4bmGS2Bwd1uJk7k&amp;dib_tag=se&amp;keywords=my+magic+mixies&amp;qid=1729516398&amp;sprefix=my+magic+mix%2Caps%2C99&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>66 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yFvCyxfLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Plus Stitch cu sunet si miros</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Stitch-Disney-Sound-Scent-Small/dp/B0C6YL2H1D/ref=sr_1_1?crid=6EMXNMGZ24N&amp;dib=eyJ2IjoiMSJ9.GuA80LmF0yuVPEU-kqsv9uLayaq9ADpBvReu1nPc2asAtEJmgEUUTq10j-altcYb3t9k1YyGDPJevWY5WAl7q5HRvhO8xbA4PHlUbBc_VRiNiXsoIrryF9CCiw_8Ymsuuje7-xai4s4kYksI-f3wNk23ZAm99jSMVpGYeEs9Du2EbsLhExjtRQruu-kR9luH8MB5o7ECPnd7ASgVz6ZW3uqoxwIynSUbp8zjBukwaj0GZ0w34C_HnUySu_HAhnPT-3Wp0wgwUcFnsx4PPpEmbs-Hw7QzcljVB4diYLvaOs0.0Y9HuQtkgUCAVRkvEzI6CmJ_iNtgsbo1m-JlnVZ6QXk&amp;dib_tag=se&amp;keywords=stitch+soundfunktion+duft+15cm&amp;qid=1729516484&amp;sprefix=stitch+soundfunktion+duft+15cm%2Caps%2C76&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81wmHRHoM8L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-GraviTrax-Junior-Starter-Environmentally/dp/B0BSX847R3/ref=sr_1_2?crid=1X7LU8OFXMUDY&amp;dib=eyJ2IjoiMSJ9.HacZPOrg5jUAw8zb8YX2rP9wurG1VPUH9ajjsfsttYOMungu-BuQav_M7W7LDs_HaLJiA4CCD1XsLUL7P628PHiaWR93cn8kXvmZKpxugWklhxzMUdAxO8NonF9N-uGQB4B7-4lX_3SD91JPzXuOLiPvsGDu3Menod9Pg6gkgWDHxOuh2ZRNrm5yFve3aLzysRcmg5diMQ92Yws4UuWjJvEXvD77q8MLTFxrgWAXOErjvtLv-E_gwG34fWMeduft6MSmf5F-oh8goqjjolGhi-h-dQQ5YecsoFCB3ncrJys.9EKnkXvyxCPIKZXs9Mx9U7m2t-LMTsbMy9fr4BxJK6M&amp;dib_tag=se&amp;keywords=gravitrax+junior+starterset&amp;qid=1729516745&amp;sprefix=gravitrax+junior%2Caps%2C98&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/715c7oaL5bL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Gravitrax Junior Starter Set L - Ice</t>
+  </si>
+  <si>
+    <t>36 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-73385-GraviTrax-Starter-Children/dp/B0CSZ63YV3/ref=sr_1_5?crid=1X7LU8OFXMUDY&amp;dib=eyJ2IjoiMSJ9.HacZPOrg5jUAw8zb8YX2rP9wurG1VPUH9ajjsfsttYOMungu-BuQav_M7W7LDs_HaLJiA4CCD1XsLUL7P628PHiaWR93cn8kXvmZKpxugWklhxzMUdAxO8NonF9N-uGQB4B7-4lX_3SD91JPzXuOLiPvsGDu3Menod9Pg6gkgWDHxOuh2ZRNrm5yFve3aLzysRcmg5diMQ92Yws4UuWjJvEXvD77q8MLTFxrgWAXOErjvtLv-E_gwG34fWMeduft6MSmf5F-oh8goqjjolGhi-h-dQQ5YecsoFCB3ncrJys.9EKnkXvyxCPIKZXs9Mx9U7m2t-LMTsbMy9fr4BxJK6M&amp;dib_tag=se&amp;keywords=gravitrax+junior+starterset&amp;qid=1729516745&amp;sprefix=gravitrax+junior%2Caps%2C98&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yqCdPH3SL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Gravitrax Junior Starter Set Frozen</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Gabbys-Dollhouse-Learning-Mobile/dp/B0CKRQ3N9W/ref=sr_1_2?crid=1TGUUBO2GUPXG&amp;dib=eyJ2IjoiMSJ9.y1-F9U8wTKploOwLbra7x_dsi6XA_61WOmjL6YdtfKrMZd5PgbtYetS_xvrxVlN5P2N30MVC6N3-x3f18WvJLvsACyrQPzED_H1v5AXbB5G5syHB0uEk7crueAZVtpCq1DlsW_jJNYq258-TK7XttLHSAv_SDIynj2wHjEpJ8M9MAHFKYdOwMS1MVOfpFPOYGVf7604XryxZFTUkz68xV3oE47bLD-NFwuB1HEwlYbg.TibLhJEUOcQ47hE3d_W_l7dd4y7OSJytlm989H5OdP4&amp;dib_tag=se&amp;keywords=gabby+lernhandy&amp;qid=1729517077&amp;sprefix=gabby+lern%2Caps%2C108&amp;sr=8-2#customerReviews</t>
+  </si>
+  <si>
+    <t>20 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71L5GUCfx4L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Telefon Gabby</t>
   </si>
 </sst>
 </file>
@@ -624,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +881,9 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -817,6 +898,9 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -831,6 +915,9 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -845,6 +932,9 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -859,6 +949,9 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -894,23 +987,121 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A037B8-5F9E-4159-8F6D-69D65C3958DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFDF4D-575B-4DD0-9C00-A80A8DF9D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Image</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>Telefon Gabby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papusa </t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/105733519-Princess-Movable-Suitable-Children/dp/B08QYTD24X/ref=sr_1_2?crid=K5EE4ZX6PC2F&amp;dib=eyJ2IjoiMSJ9.6WxTQND8ZRjVlveNJY2qRw0Mm4LH90lyvKyzz7nDafVgwRCnIYzN0bWBiMWZiMP8P163-QVHZGnO9vDq3RJAZwEAzmDQXfBGsgqWPa4-0g7KruRsNtj8nfuKPUBWSzuOZ-3hLnN7hABHEDEYMhLbj_OGraTMT0BRQWcsBS1khICmFnPU3eHBo41bmEBw0YXRe8BbNMYczPvSacihlWG3O1IyUVgp8i5f3cKO4s39KRVhD4gPPFJEUYL93RC4pV6NOYax081G7OZyfV0wcViHLvD-wO1o6ghtjUnqc7IxnQk.KN4nYMyUPUc1xxm5YUWrMV7Lym367vaok8RY7lT9OrI&amp;dib_tag=se&amp;keywords=steffi+love+pferd&amp;qid=1729591110&amp;sprefix=stefi+lo%2Caps%2C116&amp;sr=8-2#customerReviews</t>
+  </si>
+  <si>
+    <t>23 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51WGSlK3v6L._AC_SX679_.jpg</t>
   </si>
 </sst>
 </file>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,6 +1116,20 @@
         <v>87</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <hyperlinks>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFDF4D-575B-4DD0-9C00-A80A8DF9D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B5A4C-9516-406E-AB56-FF684BA2E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
   <si>
     <t>Image</t>
   </si>
@@ -261,9 +261,6 @@
     <t>https://m.media-amazon.com/images/I/81kO40+M7UL._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>Catel cu telecomanda</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/-/en/furReal-Walkin-Interactive-Bouncing-Effects/dp/B0CRBJ8JFR/ref=sr_1_2?crid=1VQJRA7B0MIQV&amp;dib=eyJ2IjoiMSJ9.53Uu6FxJ4b6G8ZdU8vF8f5_69fBrUXbiB0mmwb1j4o3FN5oTVqD_WxOQ-IU9ZCdLyRupmmDs2Bni1O65n56dwqXUKAQ_hfty5U3xd6uubP6GEKV_XpgF4J5s--YdZWRl4b9kz0DjalmySz_sZaxBs7TKoEQrpKoOIm0HBvMOyJci82LMGrfxTtnRQVckEemvsf_-Ukh732hHa8ZrScNKi2kpUIJZSlMODf42dJNSYZY.WOEefNOMKp6eIVjyUoZ4k5cSLQjkeM2JF-DkR-rmPyE&amp;dib_tag=se&amp;keywords=furreal+friends+hund+gogo&amp;qid=1729516311&amp;sprefix=furreal+gogo+hun%2Caps%2C104&amp;sr=8-2</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>https://m.media-amazon.com/images/I/71A+tWCmVlL._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>Set potiuni</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/-/en/Mixies-Cauldron-Purple-Interactive-Conjure/dp/B0BX6YW5N9/ref=sr_1_1?crid=358IKESIBXVKO&amp;dib=eyJ2IjoiMSJ9.oFY88I1D4MFo5A9ePZtzXjbQS4l-SpFJkwgAbWg7MMhtOcENlN6wulpw416W8xsS2fLUPGO47TnycXTPWIxHE2CDymxryzuQt0W7vBohROKY7k9Gxd5wxAniONIj00EQFSdEFqwA14QjSRc8QUbA489aooXS7DEeynFt9EmUOEY8HuoiqkTF2L2tH2U6weSLdM-zRruSR3jTRicqwIRaJ7KS33hoqDz6YFgspU9AJP0G5bDKdrcfvCTO2WeSnZDhWVx8KzBe_NmTT37oDFQSA7zNCmpXIAokJ02pSwIx80U.YJEOHI_2v0L6eI_rOrgvMkf9kcId4bmGS2Bwd1uJk7k&amp;dib_tag=se&amp;keywords=my+magic+mixies&amp;qid=1729516398&amp;sprefix=my+magic+mix%2Caps%2C99&amp;sr=8-1</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>https://m.media-amazon.com/images/I/81yFvCyxfLL._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>Plus Stitch cu sunet si miros</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/-/en/Stitch-Disney-Sound-Scent-Small/dp/B0C6YL2H1D/ref=sr_1_1?crid=6EMXNMGZ24N&amp;dib=eyJ2IjoiMSJ9.GuA80LmF0yuVPEU-kqsv9uLayaq9ADpBvReu1nPc2asAtEJmgEUUTq10j-altcYb3t9k1YyGDPJevWY5WAl7q5HRvhO8xbA4PHlUbBc_VRiNiXsoIrryF9CCiw_8Ymsuuje7-xai4s4kYksI-f3wNk23ZAm99jSMVpGYeEs9Du2EbsLhExjtRQruu-kR9luH8MB5o7ECPnd7ASgVz6ZW3uqoxwIynSUbp8zjBukwaj0GZ0w34C_HnUySu_HAhnPT-3Wp0wgwUcFnsx4PPpEmbs-Hw7QzcljVB4diYLvaOs0.0Y9HuQtkgUCAVRkvEzI6CmJ_iNtgsbo1m-JlnVZ6QXk&amp;dib_tag=se&amp;keywords=stitch+soundfunktion+duft+15cm&amp;qid=1729516484&amp;sprefix=stitch+soundfunktion+duft+15cm%2Caps%2C76&amp;sr=8-1</t>
   </si>
   <si>
@@ -324,12 +315,6 @@
     <t>https://m.media-amazon.com/images/I/71L5GUCfx4L._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>Telefon Gabby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papusa </t>
-  </si>
-  <si>
     <t>https://www.amazon.de/-/en/105733519-Princess-Movable-Suitable-Children/dp/B08QYTD24X/ref=sr_1_2?crid=K5EE4ZX6PC2F&amp;dib=eyJ2IjoiMSJ9.6WxTQND8ZRjVlveNJY2qRw0Mm4LH90lyvKyzz7nDafVgwRCnIYzN0bWBiMWZiMP8P163-QVHZGnO9vDq3RJAZwEAzmDQXfBGsgqWPa4-0g7KruRsNtj8nfuKPUBWSzuOZ-3hLnN7hABHEDEYMhLbj_OGraTMT0BRQWcsBS1khICmFnPU3eHBo41bmEBw0YXRe8BbNMYczPvSacihlWG3O1IyUVgp8i5f3cKO4s39KRVhD4gPPFJEUYL93RC4pV6NOYax081G7OZyfV0wcViHLvD-wO1o6ghtjUnqc7IxnQk.KN4nYMyUPUc1xxm5YUWrMV7Lym367vaok8RY7lT9OrI&amp;dib_tag=se&amp;keywords=steffi+love+pferd&amp;qid=1729591110&amp;sprefix=stefi+lo%2Caps%2C116&amp;sr=8-2#customerReviews</t>
   </si>
   <si>
@@ -337,6 +322,138 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/51WGSlK3v6L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Clara) Papusa </t>
+  </si>
+  <si>
+    <t>(Clara) Set potiuni</t>
+  </si>
+  <si>
+    <t>(Clara) Plus Stitch cu sunet si miros</t>
+  </si>
+  <si>
+    <t>(Clara) Telefon Gabby</t>
+  </si>
+  <si>
+    <t>(Clara) Catel cu telecomanda</t>
+  </si>
+  <si>
+    <t>(Maia) Plus Angel 25cm</t>
+  </si>
+  <si>
+    <t>(Maia) Telefon Paw Patrol</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Paw-Patrol-Learning-Educational/dp/B09W2RPFGM/ref=sr_1_1?crid=27879TVAXSDMC&amp;dib=eyJ2IjoiMSJ9.gBFhkTT4VJsbXzfmFH6nLA9XHBnrSXZSr15G23ofAmSvatdZ4x17fOGRi7w4pfNnI8Dtq03vrJ9vfalk2pfMjrR2aBn3iR8WlgMtWFQZVF3qN-4rwWSeDt4KtrpfAwp0KSmPhDMPiN7kIrN-Va8ruKlWoAMbw7MUPxuouDJ9AYybPTftjGIHt3nmNsPoqOkKAE6tcHugBe2dJnksPjcak0_V8XY-vgAjwHWEBSS81yMKYcJuo8ID6RWHJ2OpxxxssIweUUU8036BkNdUV7owvjR48cMUbb-CI359LSXdDnI.7IO2Hjo0k8F9hlZkI2mQUWaXtRlBqVRgiaV0klHHsuw&amp;dib_tag=se&amp;keywords=paw+patrol+lernhandy&amp;qid=1729845016&amp;s=toys&amp;sprefix=paw+patrol+lernhandy%2Ctoys%2C103&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81FXrd8-pOL._AC_SY879_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Sirena Barbie</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Accessories-Unpacking-Surprises-Mermaid-HRK12/dp/B0CRLYSY7H/ref=sr_1_1_sspa?crid=3DH370C6RA19Q&amp;dib=eyJ2IjoiMSJ9.5n_kquIaPyKlHSzp0JrBDi1QPncmHENqyPIErFgNCekrmsYVJztWt4_iaiyT2lpUl_fQjMaczD4LNk09OHLPLD3kGxzFD3v7VcmMWwZ7y4SK2LEzgnkCNxGLWQ4imixY5oDypJFl34CKCmcVmhEYC5Fg5dDtJg1h3XPtGPIV0dOsAg4Ao43jfrXjwZ1fgLr_t_CmguQRkMJeblSD4JqhoHb2s4gQr1tnw1BOxTfAmULwbKy9PqtVYCr6wkY5fl7yfOB5TKlNfP2vqeF6_8wUdCrMe1dHcfR1PamvrsfnU9s.FVX6P4lyQUEfLLVwlFRoiqjdRgP77RduzLy8VyK81-A&amp;dib_tag=se&amp;keywords=barbie+color+reveal&amp;qid=1729845088&amp;s=toys&amp;sprefix=barbie+color+re%2Ctoys%2C111&amp;sr=1-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>15 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/619HvbXSNlL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/6315876954NPB-Disney-Stitch-Figure-Suitable/dp/B07Q271JXM/ref=sr_1_5?crid=241IRMM0W9185&amp;dib=eyJ2IjoiMSJ9.1CdE7TiRnOOhoEpwc0JJyS_0nYoXwSwrMblaLAz0NGE7ndxcZSKt8RfhJ3YxOyHSuP2BuuGvwzCL5rkgkGWlTEGwrYA6Iunn1kbqmIo4kIfzPyMHq8PKN0B_NvsiZgJMU6Cq1CgfZvVE1slDBKy55ac2JdUC0xtYL7TrVEAZppMm0_iOrTwRJAhWCBuhzyg2_BiqAUfRoUsEry4QSv1IUJ050D-Y4pXqMkjEmYaV-IWh3WGbZmYhjIzyLvVKyF1_gUFBJmxamD0RowRFFwB8XMg4gdY0fJ4ycsLJ2WpphmQ.lxXY7_J0pJABvnJCYEqHGr9RG7wKTz8lgYLLIVqndFE&amp;dib_tag=se&amp;keywords=disney%2Bstitch%2Bleroy%2Bangel%2B25cm&amp;qid=1729845349&amp;s=toys&amp;sprefix=disney%2Bstitch%2Bleroy%2Bangel%2B25cm%2Ctoys%2C107&amp;sr=1-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71d-QML9QWL._SX450_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Trusa doctor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Theo-Klein-10-Piece-Doctors-Case/dp/B0002ML3MK/ref=sr_1_1_sspa?crid=4DLSOMO7CFFH&amp;dib=eyJ2IjoiMSJ9.7nxPsw_LkG-CJICNBTkfGjGYe-WPEO5FoaI3DQrl1kgjO8vkYdeqj0rWaZO9cy94iPuvkJT1NpOZlbZMTuFqDQuvjf_now8n1Ez2X0baqkrWeGDlgHIAA16tcgS1WQHt1JIFSmS9MWy9MnEFjlVrDAQUPRU09L0sNdqwJ9_j3ADt0nGHwtsJD0poIKwlm0hYBZQyL-X2DFiMTDA0jhRW-rjaqbofeXHDlVIPK_Ta4l40Ry9_mfnhiDmKDCfFQUf2FkzNu_H9bnCGO3VpeeSz62xXFrtR9W-gPV19sciwcL4.FD4WElDR3-ulY7A6O0QXKMxLrpVgzMPTc_bBzBppkY4&amp;dib_tag=se&amp;keywords=klein%2Barzt%2Bkoffer&amp;qid=1729845426&amp;sprefix=klein%2Bar%2Caps%2C319&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>16 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81J3vtHatLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Maia) Puzzle </t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Favourite-Dinosaurs/dp/B09DDB9CHM/ref=sr_1_8?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>8 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61CDR8ItfmL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Dollhouse-Children/dp/B0BXLLCXSZ/ref=sr_1_20?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81cnfZUCtTL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>7 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Flower-Meadow/dp/B015XS7UAQ/ref=sr_1_6?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81fqssNDPmL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-22580-Adaptation-Well-known-Entertaining/dp/B0D7W16RHW/ref=sr_1_1?crid=33W3ZJWMCJ3U6&amp;dib=eyJ2IjoiMSJ9.rd6AsEmkfsTPiA2mQ7ZBblS7Q1FWU-AiK9IlqhdQtm1eKJM3npv-dbjOkPmvBWCq9bgO-jw1zOherZVmmaKdaBPHdUL-i_Dnk4ecgsQJ0jaSpZd1vCyN5FswK52_lwM3uFiNk6CxiybFftJXUMU61HC7hVg-h3JZgQBhVNGwh142atAjOX8WID8zdXT0iTHNVowH8jQ1EAfmZ4_7EDnFp2zjTx1Ooe87YiOb-myIG2v1AWLqO2vWDIEYRt-EFCXJiR77cO78moxyrYP9PRUB4MqlM3k2GzBr3ZGjyH7Rvr8.6QMekaHl0LxdB9ggAzZRg8y7E0W2d3cDjQWitdv3phM&amp;dib_tag=se&amp;keywords=lotti+karotti+einhorn&amp;qid=1729845712&amp;sprefix=lotti+%2Caps%2C151&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ItnMCR2dL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>21 EUR</t>
+  </si>
+  <si>
+    <t>Lotti Karotti Unicorn</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Smoby-Dressing-Popular-Dollhouse-Gabby/dp/B0CY9K6MRH/ref=sr_1_3?crid=36MMI6PHDMFMC&amp;dib=eyJ2IjoiMSJ9.c9vuC5JfAN0gUngFM1I5YvqRamfXFTIdUWcqhdGS8xiExSwOh1f2Ctj1jGxYtL1xR-7DrJHfI5QYHtYSbIaXQbcIhZJQs9otBz3joQ4rEDXcjOde_OFCE0-c9t34nZxr3iKyP68UAtY_KnlR0ki14sszZkWBM43yS2aYD9QweXBwjeOEuPVwcZubVT9oVUQpDjd_mm3P6LZo9gE2uIP1gE51As9jStDgAgt9NjJAVQH4IJopxCtwawDnx8KVNHfo8WnxL7ZdDpurcveNJhO1r0WVsnhM4AOlzN7lDJyDxGg.T-f_oMEP2Fza0bmztN7nwB0ij_SY87FP4YISnEOcJ2k&amp;dib_tag=se&amp;keywords=smoby+frisiertisch+gabby&amp;qid=1729845795&amp;sprefix=smoby+friseurtisch+gabby%2Caps%2C96&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>(Clara) Salon Gabby</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61tVFCO2ZLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>41 EUR</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Paw-Patrol-Learning-Laptop/dp/B09W2SYGY9/ref=sr_1_4?crid=3TXW07LSNODXD&amp;dib=eyJ2IjoiMSJ9.aqSg65j_A-3LL_L4kXqS8Z_fzLKbDHn6lFls4301XS3w-4coU9jdO1i2ADl7ppvlygIJ6ehd_IEpZJq5Kx8EYaSHkTkRSqS2AMMpLVyCE-Cf9WQ-c_l8PgzTpcgN5gdREJmdy_b4kcrHXjsPXeI4pD40u3Wb5K-k-AdkzDvlePeRzqUkTZXrxx_EgJlHvf9_0n5BYIZKk1RVCtd6i3sSrfoyLFXsAr9Ca_VnK4aGH8wi8ylEztw9PZw5q7bnplYPkAjxRt1vJVt7nXqP8oFB0xKwI1GSctxexOhPVSPL6F4.hmsfZ-D44Jtm0oT6zTfoyJwbfBDYofU43mmZrk0f3kE&amp;dib_tag=se&amp;keywords=paw+patrol+lernlaptop&amp;qid=1729845893&amp;sprefix=paw+patrol+lern%2Caps%2C125&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>26 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91NEu43mBkL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Bitzee-2024-Magicals-Interactive-Electronic/dp/B0CSND4V8T/ref=sr_1_1?crid=2FIGW3W6Z998O&amp;dib=eyJ2IjoiMSJ9.i3mbxsNJzD4PPTehT-WNGjoVOceZeJn5R2mYk6ZG8YrB9dE4lVzmuJwKTd1OhvoCgrU31lzXEItydrB4bOfWY-b3Fwh3jyRkVAS62DTWucoMvk4nuAa9qLXJfLoDJeeUyVqzHTomwBHs0X0UAJl5f2pos3DC7uOdQOaysqO-Ykg9mkRHlldMMuQgxXs5-W7fADQCuX_rF_4jPbQd_oKD5LI4KMhPaCzbdXgx6pyQ_8c.5rf5mm466Ld8kUyhMQOTGNQQJRjQSwXkrFLOSdcnnvg&amp;dib_tag=se&amp;keywords=bitzee+magicals&amp;qid=1729845929&amp;sprefix=bitzee+ma%2Caps%2C140&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>30 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81KzDuIaCNL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Animale Magice</t>
   </si>
 </sst>
 </file>
@@ -714,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,41 +1151,41 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1076,58 +1193,212 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_craciun.xlsx
+++ b/wishlist_craciun.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/craciunwishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B5A4C-9516-406E-AB56-FF684BA2E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{365B5A4C-9516-406E-AB56-FF684BA2E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F10FD794-B6D8-444C-9594-52788328AA37}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Craciun" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Craciun!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Craciun!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
     <t>Image</t>
   </si>
@@ -535,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -681,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,10 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -878,7 +879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -895,7 +896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -912,7 +913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -929,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -946,7 +947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -963,7 +964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -980,7 +981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -997,7 +998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -1162,8 +1163,11 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -1190,8 +1194,11 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1218,8 +1225,11 @@
       <c r="D24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1260,8 +1270,11 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -1288,8 +1301,11 @@
       <c r="D29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -1302,8 +1318,11 @@
       <c r="D30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1317,7 +1336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -1331,7 +1350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1358,8 +1377,11 @@
       <c r="D34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -1373,7 +1395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -1386,8 +1408,11 @@
       <c r="D36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -1402,7 +1427,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <autoFilter ref="A1:E37" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{5871BB4B-8CA6-4178-97E0-183216AE46B7}"/>
   </hyperlinks>
